--- a/inst/extdata/toyFiles/ROC/non-integerCellsRows5and7.xlsx
+++ b/inst/extdata/toyFiles/ROC/non-integerCellsRows5and7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0721C73A-F033-CA47-9F16-E1ED5FE22F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C84EC-EB8B-0A4E-B53A-BF0223302517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17180" yWindow="1320" windowWidth="11620" windowHeight="13880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>crossed</t>
-  </si>
-  <si>
     <t>ROC</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -952,7 +952,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1000,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1082,7 +1082,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
